--- a/outputs-r202/g__Phocaeicola.xlsx
+++ b/outputs-r202/g__Phocaeicola.xlsx
@@ -698,148 +698,148 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.257112112117508</v>
+        <v>0.2452917384761971</v>
       </c>
       <c r="C2" t="n">
-        <v>1.234836423782147e-11</v>
+        <v>6.02204668210483e-13</v>
       </c>
       <c r="D2" t="n">
-        <v>1.234836423782147e-11</v>
+        <v>6.02204668210483e-13</v>
       </c>
       <c r="E2" t="n">
-        <v>1.234836423782146e-11</v>
+        <v>6.02204668210483e-13</v>
       </c>
       <c r="F2" t="n">
-        <v>1.234836423782146e-11</v>
+        <v>6.02204668210483e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>1.234836423782147e-11</v>
+        <v>6.022046682104822e-13</v>
       </c>
       <c r="H2" t="n">
-        <v>1.234836423782147e-11</v>
+        <v>6.022046682104822e-13</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3421250372647114</v>
+        <v>0.5498780705265336</v>
       </c>
       <c r="J2" t="n">
-        <v>1.234836423782147e-11</v>
+        <v>6.022046682104822e-13</v>
       </c>
       <c r="K2" t="n">
-        <v>1.234836423782144e-11</v>
+        <v>5.991520895758353e-12</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001836461063939401</v>
+        <v>6.296330695134094e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>1.234836423782144e-11</v>
+        <v>6.022046682104827e-13</v>
       </c>
       <c r="N2" t="n">
-        <v>1.234836423782144e-11</v>
+        <v>6.022046682106394e-13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.234836423782144e-11</v>
+        <v>6.022046682104822e-13</v>
       </c>
       <c r="P2" t="n">
-        <v>1.234836423782144e-11</v>
+        <v>6.022046682104822e-13</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.234836423782144e-11</v>
+        <v>6.022046682104838e-13</v>
       </c>
       <c r="R2" t="n">
-        <v>0.002129424379885863</v>
+        <v>4.139326218695647e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>1.234836423782141e-11</v>
+        <v>6.022046682104827e-13</v>
       </c>
       <c r="T2" t="n">
-        <v>1.234836423782143e-11</v>
+        <v>6.022046682104827e-13</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2478544818085689</v>
+        <v>0.2046591943045893</v>
       </c>
       <c r="V2" t="n">
-        <v>1.234836423782143e-11</v>
+        <v>6.022046682104827e-13</v>
       </c>
       <c r="W2" t="n">
-        <v>2.104471246275185e-06</v>
+        <v>7.231561497477339e-07</v>
       </c>
       <c r="X2" t="n">
-        <v>1.234836423782141e-11</v>
+        <v>6.022046682104827e-13</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.561874665727743e-09</v>
+        <v>3.286177380550723e-07</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.234836423782141e-11</v>
+        <v>6.022046682104827e-13</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.249838529713442e-08</v>
+        <v>6.41562324329196e-09</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.234836423782141e-11</v>
+        <v>6.022046682104827e-13</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.234836423782141e-11</v>
+        <v>6.022046682104827e-13</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.234836423782141e-11</v>
+        <v>6.022046682104827e-13</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.234836423782141e-11</v>
+        <v>6.022046682104827e-13</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.234836423782141e-11</v>
+        <v>6.022046682104827e-13</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.234836423782141e-11</v>
+        <v>6.022046682104827e-13</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.147823002669715</v>
+        <v>9.000084596105576e-05</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.234836423782141e-11</v>
+        <v>6.022046682104845e-13</v>
       </c>
       <c r="AJ2" t="n">
-        <v>4.018098168864645e-09</v>
+        <v>3.736079682518899e-09</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.234836423782142e-11</v>
+        <v>6.022046682104845e-13</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.234836423782142e-11</v>
+        <v>6.022046682104845e-13</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.234836423782141e-11</v>
+        <v>6.022046682104845e-13</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.025501035171889e-08</v>
+        <v>1.641090027988434e-06</v>
       </c>
       <c r="AO2" t="n">
-        <v>1.234836423782423e-11</v>
+        <v>3.778617370315776e-11</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.234836423782142e-11</v>
+        <v>6.022046682104843e-13</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.234836423782142e-11</v>
+        <v>6.022046682104843e-13</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.001117345458864674</v>
+        <v>3.626987219214656e-05</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.234836423782142e-11</v>
+        <v>6.022046682104843e-13</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.234836423782142e-11</v>
+        <v>6.022046682104843e-13</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.234836423782142e-11</v>
+        <v>6.022046682104843e-13</v>
       </c>
       <c r="AV2" t="n">
-        <v>1.234836423782142e-11</v>
+        <v>6.022046682104843e-13</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.3421250372647114</v>
+        <v>0.5498780705265336</v>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
@@ -859,148 +859,148 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.992846817866392e-10</v>
+        <v>0.2061864417377549</v>
       </c>
       <c r="C3" t="n">
-        <v>1.992846817866392e-10</v>
+        <v>4.170141735728414e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>1.992846817866392e-10</v>
+        <v>4.170141735728414e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>1.992846817866392e-10</v>
+        <v>4.170141735728419e-13</v>
       </c>
       <c r="F3" t="n">
-        <v>1.992846817866392e-10</v>
+        <v>4.170141735728419e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>1.992846817866392e-10</v>
+        <v>4.17014173572842e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>1.992846817866392e-10</v>
+        <v>4.17014173572842e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3520211446126219</v>
+        <v>0.626983529778264</v>
       </c>
       <c r="J3" t="n">
-        <v>1.992846817866401e-10</v>
+        <v>4.17014173572842e-13</v>
       </c>
       <c r="K3" t="n">
-        <v>1.992846817866403e-10</v>
+        <v>4.170141735728511e-13</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001640765833924207</v>
+        <v>2.01924679746438e-07</v>
       </c>
       <c r="M3" t="n">
-        <v>1.992846817866398e-10</v>
+        <v>4.170141735728425e-13</v>
       </c>
       <c r="N3" t="n">
-        <v>1.992846817866396e-10</v>
+        <v>4.170141735728425e-13</v>
       </c>
       <c r="O3" t="n">
-        <v>1.992846817866396e-10</v>
+        <v>4.170141735728425e-13</v>
       </c>
       <c r="P3" t="n">
-        <v>1.992846817866396e-10</v>
+        <v>4.170141735728425e-13</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.992846817866396e-10</v>
+        <v>4.170141735728425e-13</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1635787040445995</v>
+        <v>7.643504115985825e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>1.992846817866392e-10</v>
+        <v>4.170141735728321e-13</v>
       </c>
       <c r="T3" t="n">
-        <v>1.992846817866392e-10</v>
+        <v>4.170141735728321e-13</v>
       </c>
       <c r="U3" t="n">
-        <v>0.2242944253768412</v>
+        <v>0.1665602663225154</v>
       </c>
       <c r="V3" t="n">
-        <v>1.992846817866394e-10</v>
+        <v>4.170141735728319e-13</v>
       </c>
       <c r="W3" t="n">
-        <v>6.519091350955781e-05</v>
+        <v>1.225372406368439e-07</v>
       </c>
       <c r="X3" t="n">
-        <v>1.992846817866394e-10</v>
+        <v>4.170141735728321e-13</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.619461868366715e-07</v>
+        <v>1.657906768385527e-08</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.992846817866394e-10</v>
+        <v>4.170141735728321e-13</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.661588877823051e-07</v>
+        <v>7.070057784209888e-10</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.992846817866394e-10</v>
+        <v>4.170141735728321e-13</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.992846817866394e-10</v>
+        <v>4.170141735728321e-13</v>
       </c>
       <c r="AD3" t="n">
-        <v>1.992846817866394e-10</v>
+        <v>4.170141735728321e-13</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.992846817866394e-10</v>
+        <v>4.170141735728321e-13</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.992846817866394e-10</v>
+        <v>4.170141735728321e-13</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.992846817866394e-10</v>
+        <v>4.170141735728321e-13</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.2096332694893845</v>
+        <v>0.0001036358543503605</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.992846817866387e-10</v>
+        <v>4.170141735728424e-13</v>
       </c>
       <c r="AJ3" t="n">
-        <v>2.975810064188347e-09</v>
+        <v>5.57251145738208e-11</v>
       </c>
       <c r="AK3" t="n">
-        <v>1.99284681786639e-10</v>
+        <v>4.170141735728423e-13</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.99284681786639e-10</v>
+        <v>4.170141735728424e-13</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.99284681786639e-10</v>
+        <v>4.170141735728423e-13</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.604748178956108e-08</v>
+        <v>4.316887180404355e-09</v>
       </c>
       <c r="AO3" t="n">
-        <v>1.992846817866913e-10</v>
+        <v>4.170141735729164e-13</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.992846817866387e-10</v>
+        <v>4.170141735728423e-13</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.992846817866387e-10</v>
+        <v>4.170141735728419e-13</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.04876594542650354</v>
+        <v>8.934513075325625e-05</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.992846817866391e-10</v>
+        <v>4.170141735728419e-13</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.992846817866391e-10</v>
+        <v>4.170141735728423e-13</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.992846817866391e-10</v>
+        <v>4.170141735728423e-13</v>
       </c>
       <c r="AV3" t="n">
-        <v>1.992846817866391e-10</v>
+        <v>4.170141735728423e-13</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.3520211446126219</v>
+        <v>0.626983529778264</v>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>s__Phocaeicola mediterraneensis(reject)</t>
+          <t>s__Phocaeicola mediterraneensis</t>
         </is>
       </c>
     </row>
@@ -1020,157 +1020,157 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1994660311534441</v>
+        <v>0.2605267382176549</v>
       </c>
       <c r="C4" t="n">
-        <v>2.004081454299846e-10</v>
+        <v>7.132024090128341e-13</v>
       </c>
       <c r="D4" t="n">
-        <v>2.004081454299846e-10</v>
+        <v>7.132024090128341e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>2.004081454299844e-10</v>
+        <v>7.132024090128341e-13</v>
       </c>
       <c r="F4" t="n">
-        <v>2.004081454299844e-10</v>
+        <v>7.132024090128341e-13</v>
       </c>
       <c r="G4" t="n">
-        <v>2.004081454299846e-10</v>
+        <v>7.132024090128341e-13</v>
       </c>
       <c r="H4" t="n">
-        <v>2.004081454299846e-10</v>
+        <v>7.132024090128341e-13</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1896219399649169</v>
+        <v>0.5169650301062225</v>
       </c>
       <c r="J4" t="n">
-        <v>2.004081454299846e-10</v>
+        <v>7.132024090128341e-13</v>
       </c>
       <c r="K4" t="n">
-        <v>2.004081454299836e-10</v>
+        <v>7.132024090128338e-13</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0001155985435099256</v>
+        <v>9.147618209219566e-09</v>
       </c>
       <c r="M4" t="n">
-        <v>2.004081454299836e-10</v>
+        <v>7.13202409012834e-13</v>
       </c>
       <c r="N4" t="n">
-        <v>2.004081454299836e-10</v>
+        <v>7.132024090128337e-13</v>
       </c>
       <c r="O4" t="n">
-        <v>2.004081454299836e-10</v>
+        <v>7.132024090128337e-13</v>
       </c>
       <c r="P4" t="n">
-        <v>2.004081454299836e-10</v>
+        <v>7.132024090128337e-13</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.004081454299836e-10</v>
+        <v>7.13202409012834e-13</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1006882614138603</v>
+        <v>0.0001414945013034785</v>
       </c>
       <c r="S4" t="n">
-        <v>2.004081454299838e-10</v>
+        <v>7.132024090128329e-13</v>
       </c>
       <c r="T4" t="n">
-        <v>2.004081454299838e-10</v>
+        <v>7.132024090128329e-13</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1921781867733542</v>
+        <v>0.2208347206633874</v>
       </c>
       <c r="V4" t="n">
-        <v>2.004081454299837e-10</v>
+        <v>7.132024090128329e-13</v>
       </c>
       <c r="W4" t="n">
-        <v>9.087018077495892e-06</v>
+        <v>7.081434405650859e-08</v>
       </c>
       <c r="X4" t="n">
-        <v>2.004081454299838e-10</v>
+        <v>7.132024090128329e-13</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.004081454299837e-10</v>
+        <v>1.284830683963511e-11</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.004081454299838e-10</v>
+        <v>7.132024090128329e-13</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.504370443699126e-09</v>
+        <v>5.947383291065219e-11</v>
       </c>
       <c r="AB4" t="n">
-        <v>2.004081454299838e-10</v>
+        <v>7.132024090128329e-13</v>
       </c>
       <c r="AC4" t="n">
-        <v>2.004081454299837e-10</v>
+        <v>7.132024090128329e-13</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.004081454299837e-10</v>
+        <v>7.132024090128329e-13</v>
       </c>
       <c r="AE4" t="n">
-        <v>2.004081454299837e-10</v>
+        <v>7.132024090128329e-13</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.004081454299837e-10</v>
+        <v>7.132024090128329e-13</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.004081454299838e-10</v>
+        <v>7.132024090128329e-13</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.1599261646550846</v>
+        <v>0.0001373909177545641</v>
       </c>
       <c r="AI4" t="n">
-        <v>2.004081454299842e-10</v>
+        <v>7.13202409012835e-13</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2.004081454299842e-10</v>
+        <v>7.132024090128669e-13</v>
       </c>
       <c r="AK4" t="n">
-        <v>2.004081454299842e-10</v>
+        <v>7.13202409012835e-13</v>
       </c>
       <c r="AL4" t="n">
-        <v>2.004081454299842e-10</v>
+        <v>7.13202409012835e-13</v>
       </c>
       <c r="AM4" t="n">
-        <v>2.004081454299842e-10</v>
+        <v>7.13202409012835e-13</v>
       </c>
       <c r="AN4" t="n">
-        <v>2.004081454299842e-10</v>
+        <v>7.132024090128669e-13</v>
       </c>
       <c r="AO4" t="n">
-        <v>2.004081454299842e-10</v>
+        <v>7.13202409012835e-13</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.004081454299842e-10</v>
+        <v>7.13202409012835e-13</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2.004081454299842e-10</v>
+        <v>7.13202409012835e-13</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.157994720357872</v>
+        <v>0.001394545533005479</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.00408145429984e-10</v>
+        <v>7.13202409012835e-13</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.004081454299842e-10</v>
+        <v>7.13202409012835e-13</v>
       </c>
       <c r="AU4" t="n">
-        <v>2.004081454299842e-10</v>
+        <v>7.13202409012835e-13</v>
       </c>
       <c r="AV4" t="n">
-        <v>2.00408145429984e-10</v>
+        <v>7.13202409012835e-13</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.1994660311534441</v>
+        <v>0.5169650301062225</v>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>s__Phocaeicola abscessus</t>
+          <t>s__Phocaeicola mediterraneensis</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>s__Phocaeicola abscessus(reject)</t>
+          <t>s__Phocaeicola mediterraneensis(reject)</t>
         </is>
       </c>
     </row>
@@ -1181,148 +1181,148 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2953840500633092</v>
+        <v>0.2567463946045545</v>
       </c>
       <c r="C5" t="n">
-        <v>1.169424742211716e-12</v>
+        <v>6.774240836178937e-13</v>
       </c>
       <c r="D5" t="n">
-        <v>1.169424742211716e-12</v>
+        <v>6.774240836178937e-13</v>
       </c>
       <c r="E5" t="n">
-        <v>1.169424742211716e-12</v>
+        <v>6.774240836178937e-13</v>
       </c>
       <c r="F5" t="n">
-        <v>1.169424742211716e-12</v>
+        <v>6.774240836178937e-13</v>
       </c>
       <c r="G5" t="n">
-        <v>1.169424742211717e-12</v>
+        <v>6.774240836178937e-13</v>
       </c>
       <c r="H5" t="n">
-        <v>1.169424742211717e-12</v>
+        <v>6.774240836178937e-13</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4418854467331345</v>
+        <v>0.5258880531332376</v>
       </c>
       <c r="J5" t="n">
-        <v>1.169424742211717e-12</v>
+        <v>6.774240836178937e-13</v>
       </c>
       <c r="K5" t="n">
-        <v>1.169424742211716e-12</v>
+        <v>6.774240836178937e-13</v>
       </c>
       <c r="L5" t="n">
-        <v>5.145586126645256e-09</v>
+        <v>7.332716457638256e-09</v>
       </c>
       <c r="M5" t="n">
-        <v>1.169424742211716e-12</v>
+        <v>6.774240836178937e-13</v>
       </c>
       <c r="N5" t="n">
-        <v>1.169424742211742e-12</v>
+        <v>6.774240836179355e-13</v>
       </c>
       <c r="O5" t="n">
-        <v>1.169424742211716e-12</v>
+        <v>6.774240836178937e-13</v>
       </c>
       <c r="P5" t="n">
-        <v>1.169424742211716e-12</v>
+        <v>6.774240836178937e-13</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.169424742211716e-12</v>
+        <v>6.774240836178937e-13</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0004237877317464036</v>
+        <v>0.0001031777486127326</v>
       </c>
       <c r="S5" t="n">
-        <v>1.169424742211716e-12</v>
+        <v>6.774240836178938e-13</v>
       </c>
       <c r="T5" t="n">
-        <v>1.169424742211716e-12</v>
+        <v>6.774240836178938e-13</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2614523230379137</v>
+        <v>0.2165151528813731</v>
       </c>
       <c r="V5" t="n">
-        <v>1.169424742211717e-12</v>
+        <v>6.774240836178938e-13</v>
       </c>
       <c r="W5" t="n">
-        <v>1.21924465050586e-07</v>
+        <v>6.178195381734487e-08</v>
       </c>
       <c r="X5" t="n">
-        <v>1.169424742211717e-12</v>
+        <v>6.774240836178938e-13</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.699013013079362e-12</v>
+        <v>2.9228778299382e-11</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.169424742211717e-12</v>
+        <v>6.774240836178938e-13</v>
       </c>
       <c r="AA5" t="n">
-        <v>6.81495722077348e-11</v>
+        <v>5.312369801923262e-11</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.169424742211716e-12</v>
+        <v>6.774240836178938e-13</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.169424742211716e-12</v>
+        <v>6.774240836178938e-13</v>
       </c>
       <c r="AD5" t="n">
-        <v>1.169424742211716e-12</v>
+        <v>6.774240836178938e-13</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.169424742211716e-12</v>
+        <v>6.774240836178938e-13</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.169424742211716e-12</v>
+        <v>6.774240836178938e-13</v>
       </c>
       <c r="AG5" t="n">
-        <v>1.169424742211716e-12</v>
+        <v>6.774240836178938e-13</v>
       </c>
       <c r="AH5" t="n">
-        <v>4.628759654645834e-05</v>
+        <v>0.0001177296314670714</v>
       </c>
       <c r="AI5" t="n">
-        <v>1.169424742211717e-12</v>
+        <v>6.774240836178923e-13</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1.169424742211717e-12</v>
+        <v>6.774240836179211e-13</v>
       </c>
       <c r="AK5" t="n">
-        <v>1.169424742211717e-12</v>
+        <v>6.774240836178926e-13</v>
       </c>
       <c r="AL5" t="n">
-        <v>1.169424742211717e-12</v>
+        <v>6.774240836178926e-13</v>
       </c>
       <c r="AM5" t="n">
-        <v>1.169424742211717e-12</v>
+        <v>6.774240836178926e-13</v>
       </c>
       <c r="AN5" t="n">
-        <v>1.169424742211717e-12</v>
+        <v>6.774240836179066e-13</v>
       </c>
       <c r="AO5" t="n">
-        <v>1.169424742211717e-12</v>
+        <v>6.774240836178926e-13</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.169424742211717e-12</v>
+        <v>6.774240836178926e-13</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.169424742211717e-12</v>
+        <v>6.774240836178926e-13</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.0008079776491827134</v>
+        <v>0.000629422778667256</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.169424742211717e-12</v>
+        <v>6.774240836178926e-13</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.169424742211717e-12</v>
+        <v>6.774240836178926e-13</v>
       </c>
       <c r="AU5" t="n">
-        <v>1.169424742211717e-12</v>
+        <v>6.774240836178926e-13</v>
       </c>
       <c r="AV5" t="n">
-        <v>1.169424742211717e-12</v>
+        <v>6.774240836178926e-13</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.4418854467331345</v>
+        <v>0.5258880531332376</v>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
